--- a/data/pca/factorExposure/factorExposure_2016-01-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-01-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01927224448653964</v>
+        <v>-0.0190663242141993</v>
       </c>
       <c r="C2">
-        <v>-0.04364269446046178</v>
+        <v>0.04031813917084949</v>
       </c>
       <c r="D2">
-        <v>0.09941198039044624</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1204049306745069</v>
+      </c>
+      <c r="E2">
+        <v>-0.08374399747688238</v>
+      </c>
+      <c r="F2">
+        <v>0.005199256845704656</v>
+      </c>
+      <c r="G2">
+        <v>-0.02490996116421185</v>
+      </c>
+      <c r="H2">
+        <v>0.1011755271900194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.0218393282191246</v>
+        <v>-0.01293921693912526</v>
       </c>
       <c r="C3">
-        <v>-0.07021188477175201</v>
+        <v>0.03957699372734019</v>
       </c>
       <c r="D3">
-        <v>0.1609142788488244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.08574715252181093</v>
+      </c>
+      <c r="E3">
+        <v>-0.0888720900255794</v>
+      </c>
+      <c r="F3">
+        <v>0.03277561851641489</v>
+      </c>
+      <c r="G3">
+        <v>-0.09857157427912661</v>
+      </c>
+      <c r="H3">
+        <v>0.05028323399119365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05208857165611741</v>
+        <v>-0.05630765023839434</v>
       </c>
       <c r="C4">
-        <v>-0.04660749741968237</v>
+        <v>0.06658075623812532</v>
       </c>
       <c r="D4">
-        <v>0.1304671748106995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1367218478218118</v>
+      </c>
+      <c r="E4">
+        <v>-0.05749281566695449</v>
+      </c>
+      <c r="F4">
+        <v>0.01891742345798169</v>
+      </c>
+      <c r="G4">
+        <v>0.02145783597101232</v>
+      </c>
+      <c r="H4">
+        <v>-0.04109981781521338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.04375262901350976</v>
+        <v>-0.04112466505675346</v>
       </c>
       <c r="C6">
-        <v>-0.01541920892063066</v>
+        <v>0.02609788885807921</v>
       </c>
       <c r="D6">
-        <v>0.1243362394345157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1251051293683395</v>
+      </c>
+      <c r="E6">
+        <v>-0.04409210417183215</v>
+      </c>
+      <c r="F6">
+        <v>0.01462705033066706</v>
+      </c>
+      <c r="G6">
+        <v>-0.003793711650185374</v>
+      </c>
+      <c r="H6">
+        <v>0.007032915795793588</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02401168008397856</v>
+        <v>-0.0179830319865888</v>
       </c>
       <c r="C7">
-        <v>-0.01947573383804833</v>
+        <v>0.03121335108644048</v>
       </c>
       <c r="D7">
-        <v>0.08712322999368576</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0920688896060852</v>
+      </c>
+      <c r="E7">
+        <v>-0.04512571813699893</v>
+      </c>
+      <c r="F7">
+        <v>0.01384397786982173</v>
+      </c>
+      <c r="G7">
+        <v>0.0488440736411307</v>
+      </c>
+      <c r="H7">
+        <v>0.08556645211237343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.009364603255846673</v>
+        <v>-0.009599538272637698</v>
       </c>
       <c r="C8">
-        <v>-0.03434290050572839</v>
+        <v>0.0366414772947715</v>
       </c>
       <c r="D8">
-        <v>0.06702361450481691</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07397059128131722</v>
+      </c>
+      <c r="E8">
+        <v>-0.04199119717936407</v>
+      </c>
+      <c r="F8">
+        <v>0.03388260755613397</v>
+      </c>
+      <c r="G8">
+        <v>0.005073583610434242</v>
+      </c>
+      <c r="H8">
+        <v>0.02954642872254588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03846410428471266</v>
+        <v>-0.04125040896326992</v>
       </c>
       <c r="C9">
-        <v>-0.04011331942489703</v>
+        <v>0.0583284039462369</v>
       </c>
       <c r="D9">
-        <v>0.107722242816466</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1157352989348773</v>
+      </c>
+      <c r="E9">
+        <v>-0.04733101540319947</v>
+      </c>
+      <c r="F9">
+        <v>0.00149027427376959</v>
+      </c>
+      <c r="G9">
+        <v>0.02741428126044496</v>
+      </c>
+      <c r="H9">
+        <v>-0.0006149097471190465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.08993325370714129</v>
+        <v>-0.1257088102468052</v>
       </c>
       <c r="C10">
-        <v>0.1964771145020055</v>
+        <v>-0.1952150376254381</v>
       </c>
       <c r="D10">
-        <v>0.005037594944488296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.001360017791057834</v>
+      </c>
+      <c r="E10">
+        <v>-0.05591675007399507</v>
+      </c>
+      <c r="F10">
+        <v>0.01230669002278568</v>
+      </c>
+      <c r="G10">
+        <v>0.03276655056274836</v>
+      </c>
+      <c r="H10">
+        <v>-0.01617942360848013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03441031894573209</v>
+        <v>-0.0292056638768253</v>
       </c>
       <c r="C11">
-        <v>-0.0401998745004396</v>
+        <v>0.04290315751257874</v>
       </c>
       <c r="D11">
-        <v>0.0595453252616059</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05950658822854468</v>
+      </c>
+      <c r="E11">
+        <v>-0.007968793385079867</v>
+      </c>
+      <c r="F11">
+        <v>0.006124426168281297</v>
+      </c>
+      <c r="G11">
+        <v>0.02289884868876638</v>
+      </c>
+      <c r="H11">
+        <v>0.04727172279434085</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04088205671472072</v>
+        <v>-0.03395509352150121</v>
       </c>
       <c r="C12">
-        <v>-0.03750941808663691</v>
+        <v>0.04307186896251782</v>
       </c>
       <c r="D12">
-        <v>0.05772574377155144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05686902549877599</v>
+      </c>
+      <c r="E12">
+        <v>-0.01929879552980226</v>
+      </c>
+      <c r="F12">
+        <v>0.0003093158513911699</v>
+      </c>
+      <c r="G12">
+        <v>0.02418436067312506</v>
+      </c>
+      <c r="H12">
+        <v>0.05426006528946368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01283987897682629</v>
+        <v>-0.01957516410894438</v>
       </c>
       <c r="C13">
-        <v>-0.03545245635616364</v>
+        <v>0.04011349797829597</v>
       </c>
       <c r="D13">
-        <v>0.1305678876856201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1412072463840788</v>
+      </c>
+      <c r="E13">
+        <v>-0.08181849513499935</v>
+      </c>
+      <c r="F13">
+        <v>0.024046657377114</v>
+      </c>
+      <c r="G13">
+        <v>0.03379930056265653</v>
+      </c>
+      <c r="H13">
+        <v>0.08130538953344016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01213752723969591</v>
+        <v>-0.007551420359955246</v>
       </c>
       <c r="C14">
-        <v>-0.01330033006980822</v>
+        <v>0.02202169875528434</v>
       </c>
       <c r="D14">
-        <v>0.07873831167439688</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.08340178050211036</v>
+      </c>
+      <c r="E14">
+        <v>-0.04476683126214657</v>
+      </c>
+      <c r="F14">
+        <v>-0.01398335653884664</v>
+      </c>
+      <c r="G14">
+        <v>0.03442791946247153</v>
+      </c>
+      <c r="H14">
+        <v>0.08260994798297025</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001704728445527866</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.007898114697848652</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.02650939513865021</v>
+      </c>
+      <c r="E15">
+        <v>-0.006387298052218963</v>
+      </c>
+      <c r="F15">
+        <v>-0.002800538748236396</v>
+      </c>
+      <c r="G15">
+        <v>-0.001145963624653391</v>
+      </c>
+      <c r="H15">
+        <v>0.01230136111376151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.036189993955673</v>
+        <v>-0.03045383575163604</v>
       </c>
       <c r="C16">
-        <v>-0.04454278935094885</v>
+        <v>0.04481596951693406</v>
       </c>
       <c r="D16">
-        <v>0.06655814767243991</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06192196614378627</v>
+      </c>
+      <c r="E16">
+        <v>-0.02143099796598455</v>
+      </c>
+      <c r="F16">
+        <v>-0.00810706298215552</v>
+      </c>
+      <c r="G16">
+        <v>0.02028205633799831</v>
+      </c>
+      <c r="H16">
+        <v>0.0534812813354654</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.01257865386412147</v>
+        <v>-0.01140609515861955</v>
       </c>
       <c r="C19">
-        <v>-0.02447616910584235</v>
+        <v>0.02643130292505245</v>
       </c>
       <c r="D19">
-        <v>0.1752357911512924</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1322248935804838</v>
+      </c>
+      <c r="E19">
+        <v>-0.07354168735066675</v>
+      </c>
+      <c r="F19">
+        <v>-0.02987516572333558</v>
+      </c>
+      <c r="G19">
+        <v>0.005161406981581435</v>
+      </c>
+      <c r="H19">
+        <v>0.0531788145345439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.01906704101382937</v>
+        <v>-0.01619963519042465</v>
       </c>
       <c r="C20">
-        <v>-0.02741506470434309</v>
+        <v>0.03541106068515366</v>
       </c>
       <c r="D20">
-        <v>0.09313986886010109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.09565208778897208</v>
+      </c>
+      <c r="E20">
+        <v>-0.06443325196129718</v>
+      </c>
+      <c r="F20">
+        <v>-0.006465547745990818</v>
+      </c>
+      <c r="G20">
+        <v>0.02011391300790968</v>
+      </c>
+      <c r="H20">
+        <v>0.044396687539111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01078887227994128</v>
+        <v>-0.01485798496354518</v>
       </c>
       <c r="C21">
-        <v>-0.0201456856350622</v>
+        <v>0.03515146203926063</v>
       </c>
       <c r="D21">
-        <v>0.1274526144073242</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1334076735718188</v>
+      </c>
+      <c r="E21">
+        <v>-0.1019582872909158</v>
+      </c>
+      <c r="F21">
+        <v>-0.01480396438477663</v>
+      </c>
+      <c r="G21">
+        <v>0.07691595948146734</v>
+      </c>
+      <c r="H21">
+        <v>0.08210111984271327</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0004992065870211206</v>
+        <v>-0.005659135431524156</v>
       </c>
       <c r="C22">
-        <v>-0.01464480140050598</v>
+        <v>0.0370734205971994</v>
       </c>
       <c r="D22">
-        <v>0.0579424841249512</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1192946955764851</v>
+      </c>
+      <c r="E22">
+        <v>-0.03321043659414418</v>
+      </c>
+      <c r="F22">
+        <v>0.07532408172484911</v>
+      </c>
+      <c r="G22">
+        <v>-0.05303688541648204</v>
+      </c>
+      <c r="H22">
+        <v>-0.01116695955816243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0004511342775690404</v>
+        <v>-0.005754061353811612</v>
       </c>
       <c r="C23">
-        <v>-0.01446756366994187</v>
+        <v>0.03749461593419364</v>
       </c>
       <c r="D23">
-        <v>0.05761295588292525</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1187466020993422</v>
+      </c>
+      <c r="E23">
+        <v>-0.03342288350588834</v>
+      </c>
+      <c r="F23">
+        <v>0.07522366711988097</v>
+      </c>
+      <c r="G23">
+        <v>-0.05224299197076926</v>
+      </c>
+      <c r="H23">
+        <v>-0.01171858246411045</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03496083015663158</v>
+        <v>-0.03188920805460366</v>
       </c>
       <c r="C24">
-        <v>-0.04640170707021871</v>
+        <v>0.05400858139827145</v>
       </c>
       <c r="D24">
-        <v>0.06560182165468274</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06580250496700178</v>
+      </c>
+      <c r="E24">
+        <v>-0.02608388312882328</v>
+      </c>
+      <c r="F24">
+        <v>-0.004769509982066343</v>
+      </c>
+      <c r="G24">
+        <v>0.03530756417406878</v>
+      </c>
+      <c r="H24">
+        <v>0.05957340053716381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04314138097038429</v>
+        <v>-0.03725179129959489</v>
       </c>
       <c r="C25">
-        <v>-0.04671625584381406</v>
+        <v>0.05158993636825334</v>
       </c>
       <c r="D25">
-        <v>0.06694286783034353</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06176135800773522</v>
+      </c>
+      <c r="E25">
+        <v>-0.02446517957949657</v>
+      </c>
+      <c r="F25">
+        <v>0.007762245046853052</v>
+      </c>
+      <c r="G25">
+        <v>0.03390438183854929</v>
+      </c>
+      <c r="H25">
+        <v>0.04566849467464407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02211293814291268</v>
+        <v>-0.02079053759988579</v>
       </c>
       <c r="C26">
-        <v>-0.008189578410639817</v>
+        <v>0.01777490832165065</v>
       </c>
       <c r="D26">
-        <v>0.05543018847991664</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06457787108876632</v>
+      </c>
+      <c r="E26">
+        <v>-0.03300480081584348</v>
+      </c>
+      <c r="F26">
+        <v>-0.00443551460180915</v>
+      </c>
+      <c r="G26">
+        <v>0.01901751526509316</v>
+      </c>
+      <c r="H26">
+        <v>0.05148998151858484</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1245528024611394</v>
+        <v>-0.1768489290935487</v>
       </c>
       <c r="C28">
-        <v>0.2780190919260856</v>
+        <v>-0.2594154503429326</v>
       </c>
       <c r="D28">
-        <v>-0.02833341325571555</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01348542725541169</v>
+      </c>
+      <c r="E28">
+        <v>-0.07585879744355017</v>
+      </c>
+      <c r="F28">
+        <v>0.002827153358945073</v>
+      </c>
+      <c r="G28">
+        <v>0.0762983623119551</v>
+      </c>
+      <c r="H28">
+        <v>-0.01547146500671545</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.005466213709548842</v>
+        <v>-0.006796839038021557</v>
       </c>
       <c r="C29">
-        <v>-0.01528863819841805</v>
+        <v>0.02045221168684544</v>
       </c>
       <c r="D29">
-        <v>0.06206129952878571</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.07729116048971499</v>
+      </c>
+      <c r="E29">
+        <v>-0.04850016395556354</v>
+      </c>
+      <c r="F29">
+        <v>-0.0001160825515815293</v>
+      </c>
+      <c r="G29">
+        <v>0.04817047016922908</v>
+      </c>
+      <c r="H29">
+        <v>0.07718065437182672</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.04243686913499989</v>
+        <v>-0.04397888023608169</v>
       </c>
       <c r="C30">
-        <v>-0.03247153164946701</v>
+        <v>0.05884006674577925</v>
       </c>
       <c r="D30">
-        <v>0.149758102162339</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1710739485452862</v>
+      </c>
+      <c r="E30">
+        <v>-0.03281028972560492</v>
+      </c>
+      <c r="F30">
+        <v>0.003210043247182785</v>
+      </c>
+      <c r="G30">
+        <v>-0.02383676782298155</v>
+      </c>
+      <c r="H30">
+        <v>0.01488307419796444</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06367032094071572</v>
+        <v>-0.05751905065601986</v>
       </c>
       <c r="C31">
-        <v>-0.04928422606216944</v>
+        <v>0.07122541003443052</v>
       </c>
       <c r="D31">
-        <v>0.0638920744299649</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05119460855481628</v>
+      </c>
+      <c r="E31">
+        <v>-0.04721655520944636</v>
+      </c>
+      <c r="F31">
+        <v>0.04114119156904777</v>
+      </c>
+      <c r="G31">
+        <v>0.0218233778224775</v>
+      </c>
+      <c r="H31">
+        <v>0.02240895907416555</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.001483598288087237</v>
+        <v>-0.01074840150880576</v>
       </c>
       <c r="C32">
-        <v>0.003141611128138728</v>
+        <v>0.01708736301781627</v>
       </c>
       <c r="D32">
-        <v>0.06452652068881877</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.09063723361002392</v>
+      </c>
+      <c r="E32">
+        <v>-0.09017599173738816</v>
+      </c>
+      <c r="F32">
+        <v>-0.002642310806940406</v>
+      </c>
+      <c r="G32">
+        <v>0.07687210122821542</v>
+      </c>
+      <c r="H32">
+        <v>0.06053940594938365</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02666748627526029</v>
+        <v>-0.02424756621790806</v>
       </c>
       <c r="C33">
-        <v>-0.02891476184027691</v>
+        <v>0.04387053367530125</v>
       </c>
       <c r="D33">
-        <v>0.1377984993450512</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1325075187210782</v>
+      </c>
+      <c r="E33">
+        <v>-0.0584051915720141</v>
+      </c>
+      <c r="F33">
+        <v>0.01709616907813047</v>
+      </c>
+      <c r="G33">
+        <v>0.02667738656448046</v>
+      </c>
+      <c r="H33">
+        <v>0.05501891819711542</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03393839025507376</v>
+        <v>-0.03031038592050629</v>
       </c>
       <c r="C34">
-        <v>-0.05625874799693776</v>
+        <v>0.05993453778470394</v>
       </c>
       <c r="D34">
-        <v>0.06203670201963193</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05978574231695065</v>
+      </c>
+      <c r="E34">
+        <v>-0.004955584761617012</v>
+      </c>
+      <c r="F34">
+        <v>-0.003646544878104428</v>
+      </c>
+      <c r="G34">
+        <v>0.03512792953977763</v>
+      </c>
+      <c r="H34">
+        <v>0.06327325051138147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.0005030347333811267</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0001838365301936668</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.002855246006874843</v>
+      </c>
+      <c r="E35">
+        <v>-0.0005317062478588529</v>
+      </c>
+      <c r="F35">
+        <v>0.0001996474234169229</v>
+      </c>
+      <c r="G35">
+        <v>0.001211950671231239</v>
+      </c>
+      <c r="H35">
+        <v>0.00230163852334185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01850806587696278</v>
+        <v>-0.01780859730589331</v>
       </c>
       <c r="C36">
-        <v>-0.003550445171392095</v>
+        <v>0.01584053259738956</v>
       </c>
       <c r="D36">
-        <v>0.07397333758606058</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07680275375196152</v>
+      </c>
+      <c r="E36">
+        <v>-0.04435883267153818</v>
+      </c>
+      <c r="F36">
+        <v>-0.003422364507034297</v>
+      </c>
+      <c r="G36">
+        <v>0.03140451797215016</v>
+      </c>
+      <c r="H36">
+        <v>0.04163922867300769</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02990207475115508</v>
+        <v>-0.02410848385716676</v>
       </c>
       <c r="C38">
-        <v>-0.02346903896842199</v>
+        <v>0.02408960580993213</v>
       </c>
       <c r="D38">
-        <v>0.05780634945616055</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.05931650055997181</v>
+      </c>
+      <c r="E38">
+        <v>-0.03912911513360302</v>
+      </c>
+      <c r="F38">
+        <v>-0.003037217288118075</v>
+      </c>
+      <c r="G38">
+        <v>-0.02674872509167154</v>
+      </c>
+      <c r="H38">
+        <v>0.03479108225210532</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04387786043661058</v>
+        <v>-0.03885195945837774</v>
       </c>
       <c r="C39">
-        <v>-0.05617119105484713</v>
+        <v>0.06433300060920503</v>
       </c>
       <c r="D39">
-        <v>0.08411443434626428</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1026935271276534</v>
+      </c>
+      <c r="E39">
+        <v>-0.02411034665927373</v>
+      </c>
+      <c r="F39">
+        <v>-0.02192526395965125</v>
+      </c>
+      <c r="G39">
+        <v>0.02557768746954924</v>
+      </c>
+      <c r="H39">
+        <v>0.07654822675288379</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01708701762852211</v>
+        <v>-0.01543347042642764</v>
       </c>
       <c r="C40">
-        <v>-0.04536404359053745</v>
+        <v>0.03779416057642416</v>
       </c>
       <c r="D40">
-        <v>0.08360990973250487</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08423827140785987</v>
+      </c>
+      <c r="E40">
+        <v>-0.08691742581503364</v>
+      </c>
+      <c r="F40">
+        <v>0.05218664946883314</v>
+      </c>
+      <c r="G40">
+        <v>0.01366783020895666</v>
+      </c>
+      <c r="H40">
+        <v>0.1533566516825964</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.0241705346767223</v>
+        <v>-0.02232064281535834</v>
       </c>
       <c r="C41">
-        <v>0.002522747824808296</v>
+        <v>0.009589487564804504</v>
       </c>
       <c r="D41">
-        <v>0.07763404243455624</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05843412816729125</v>
+      </c>
+      <c r="E41">
+        <v>-0.05830727597286957</v>
+      </c>
+      <c r="F41">
+        <v>-0.002055873789198959</v>
+      </c>
+      <c r="G41">
+        <v>0.01121583028999635</v>
+      </c>
+      <c r="H41">
+        <v>0.03938974320881382</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.03445836092523907</v>
+        <v>-0.02535266936717702</v>
       </c>
       <c r="C43">
-        <v>-0.008832756821857623</v>
+        <v>0.01971676596184623</v>
       </c>
       <c r="D43">
-        <v>0.1155142643109522</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08892735881837191</v>
+      </c>
+      <c r="E43">
+        <v>-0.04628212426565993</v>
+      </c>
+      <c r="F43">
+        <v>0.005320134225410282</v>
+      </c>
+      <c r="G43">
+        <v>0.01441322305916233</v>
+      </c>
+      <c r="H43">
+        <v>0.05601573603773076</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01365460996277347</v>
+        <v>-0.01781277247351999</v>
       </c>
       <c r="C44">
-        <v>-0.04225244106183852</v>
+        <v>0.04275515867368507</v>
       </c>
       <c r="D44">
-        <v>0.08524384922279335</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09681249843307295</v>
+      </c>
+      <c r="E44">
+        <v>-0.08211640795860267</v>
+      </c>
+      <c r="F44">
+        <v>-0.005673912547208788</v>
+      </c>
+      <c r="G44">
+        <v>0.03284415611757214</v>
+      </c>
+      <c r="H44">
+        <v>0.05741307498044776</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02034806327647606</v>
+        <v>-0.0165626444709031</v>
       </c>
       <c r="C46">
-        <v>-0.01472334990728047</v>
+        <v>0.02823120335003614</v>
       </c>
       <c r="D46">
-        <v>0.07349662685799474</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08657142314885685</v>
+      </c>
+      <c r="E46">
+        <v>-0.05287421508569345</v>
+      </c>
+      <c r="F46">
+        <v>-0.02140541927977467</v>
+      </c>
+      <c r="G46">
+        <v>0.05715656001623904</v>
+      </c>
+      <c r="H46">
+        <v>0.07938413793003077</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09348911474950646</v>
+        <v>-0.08845929880038533</v>
       </c>
       <c r="C47">
-        <v>-0.06717884915338859</v>
+        <v>0.08734433326416505</v>
       </c>
       <c r="D47">
-        <v>0.03791269883173618</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02927847080090256</v>
+      </c>
+      <c r="E47">
+        <v>-0.03782666254147123</v>
+      </c>
+      <c r="F47">
+        <v>0.02417842540541944</v>
+      </c>
+      <c r="G47">
+        <v>0.05510010409170225</v>
+      </c>
+      <c r="H47">
+        <v>-0.00973972900829799</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02088464711558608</v>
+        <v>-0.01934108500226111</v>
       </c>
       <c r="C48">
-        <v>-0.004165347169552815</v>
+        <v>0.01886199569066829</v>
       </c>
       <c r="D48">
-        <v>0.07331208625714471</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07822044934605331</v>
+      </c>
+      <c r="E48">
+        <v>-0.05750332911723381</v>
+      </c>
+      <c r="F48">
+        <v>-0.01663590117337181</v>
+      </c>
+      <c r="G48">
+        <v>0.02842050527467526</v>
+      </c>
+      <c r="H48">
+        <v>0.04249149747285733</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07621711107308622</v>
+        <v>-0.0638558551833697</v>
       </c>
       <c r="C50">
-        <v>-0.06380060976616277</v>
+        <v>0.06912404940731723</v>
       </c>
       <c r="D50">
-        <v>0.06839375716600982</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05607595668921724</v>
+      </c>
+      <c r="E50">
+        <v>-0.05022523848464749</v>
+      </c>
+      <c r="F50">
+        <v>0.04111331246074135</v>
+      </c>
+      <c r="G50">
+        <v>0.00481249151036685</v>
+      </c>
+      <c r="H50">
+        <v>0.03158995514028919</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.009131317735879409</v>
+        <v>-0.008582233654122504</v>
       </c>
       <c r="C51">
-        <v>-0.01771278267238762</v>
+        <v>0.01745211581366659</v>
       </c>
       <c r="D51">
-        <v>0.08559348499327298</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.09062148167165357</v>
+      </c>
+      <c r="E51">
+        <v>-0.03690437678306715</v>
+      </c>
+      <c r="F51">
+        <v>-0.005935489757073146</v>
+      </c>
+      <c r="G51">
+        <v>0.01093238767485844</v>
+      </c>
+      <c r="H51">
+        <v>0.0732966254220279</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.07750649685313495</v>
+        <v>-0.09030505945047079</v>
       </c>
       <c r="C53">
-        <v>-0.08215418805291433</v>
+        <v>0.09605913847033536</v>
       </c>
       <c r="D53">
-        <v>0.02076025951131119</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.0008986729673919142</v>
+      </c>
+      <c r="E53">
+        <v>-0.09874021684450981</v>
+      </c>
+      <c r="F53">
+        <v>0.02620868669302108</v>
+      </c>
+      <c r="G53">
+        <v>0.08243682548664047</v>
+      </c>
+      <c r="H53">
+        <v>-0.05298995211134706</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.03433212994520003</v>
+        <v>-0.02725670418273285</v>
       </c>
       <c r="C54">
-        <v>-0.02535805636434543</v>
+        <v>0.03371965645354374</v>
       </c>
       <c r="D54">
-        <v>0.08290782013245883</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08673568428103193</v>
+      </c>
+      <c r="E54">
+        <v>-0.05185702497353133</v>
+      </c>
+      <c r="F54">
+        <v>-0.02040316766400461</v>
+      </c>
+      <c r="G54">
+        <v>0.03051702938198968</v>
+      </c>
+      <c r="H54">
+        <v>0.1002360793796441</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08484813824182595</v>
+        <v>-0.08729957826388145</v>
       </c>
       <c r="C55">
-        <v>-0.05987079848960763</v>
+        <v>0.0775919746687789</v>
       </c>
       <c r="D55">
-        <v>0.001569395166701477</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01491274330477334</v>
+      </c>
+      <c r="E55">
+        <v>-0.05921520390780485</v>
+      </c>
+      <c r="F55">
+        <v>0.02978142264636546</v>
+      </c>
+      <c r="G55">
+        <v>0.03470324506614185</v>
+      </c>
+      <c r="H55">
+        <v>-0.03656732936278448</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1366581263026924</v>
+        <v>-0.1384084901116467</v>
       </c>
       <c r="C56">
-        <v>-0.09394413001103381</v>
+        <v>0.119448253529484</v>
       </c>
       <c r="D56">
-        <v>0.008672263010268844</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01671457626618671</v>
+      </c>
+      <c r="E56">
+        <v>-0.05412107743550667</v>
+      </c>
+      <c r="F56">
+        <v>0.01805615132190664</v>
+      </c>
+      <c r="G56">
+        <v>0.0441238044383802</v>
+      </c>
+      <c r="H56">
+        <v>-0.04145521856033056</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.04114228962132677</v>
+        <v>-0.04011759331513998</v>
       </c>
       <c r="C58">
-        <v>0.02141461265867751</v>
+        <v>0.01948318024972758</v>
       </c>
       <c r="D58">
-        <v>0.4294538529756481</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3789157433708485</v>
+      </c>
+      <c r="E58">
+        <v>-0.2248630374839839</v>
+      </c>
+      <c r="F58">
+        <v>0.1117377843013664</v>
+      </c>
+      <c r="G58">
+        <v>-0.4777462171671938</v>
+      </c>
+      <c r="H58">
+        <v>-0.2787956108668898</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.136987486198388</v>
+        <v>-0.1651606881839639</v>
       </c>
       <c r="C59">
-        <v>0.2082099656315865</v>
+        <v>-0.1810042571358309</v>
       </c>
       <c r="D59">
-        <v>0.01839462833952048</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.04398344288322223</v>
+      </c>
+      <c r="E59">
+        <v>-0.01557327417630414</v>
+      </c>
+      <c r="F59">
+        <v>-0.03593127947286733</v>
+      </c>
+      <c r="G59">
+        <v>-0.006028894941214971</v>
+      </c>
+      <c r="H59">
+        <v>-0.01850894273614712</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2625519964520956</v>
+        <v>-0.2378370771085732</v>
       </c>
       <c r="C60">
-        <v>-0.06830842411375694</v>
+        <v>0.09106082623207068</v>
       </c>
       <c r="D60">
-        <v>0.1241140017095398</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1246903495099528</v>
+      </c>
+      <c r="E60">
+        <v>0.3551617812166171</v>
+      </c>
+      <c r="F60">
+        <v>0.09184851521027919</v>
+      </c>
+      <c r="G60">
+        <v>0.008833520528967154</v>
+      </c>
+      <c r="H60">
+        <v>-0.06230315356781855</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04825749351930055</v>
+        <v>-0.04243119977824901</v>
       </c>
       <c r="C61">
-        <v>-0.05033724022718229</v>
+        <v>0.05727977954307684</v>
       </c>
       <c r="D61">
-        <v>0.09803446496115677</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09386262690708901</v>
+      </c>
+      <c r="E61">
+        <v>-0.02281056013696151</v>
+      </c>
+      <c r="F61">
+        <v>-0.01066355150987005</v>
+      </c>
+      <c r="G61">
+        <v>0.04150116246817415</v>
+      </c>
+      <c r="H61">
+        <v>0.06599452143510311</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01458723172395798</v>
+        <v>-0.01494665070901962</v>
       </c>
       <c r="C63">
-        <v>-0.01545998494330353</v>
+        <v>0.02658562723154672</v>
       </c>
       <c r="D63">
-        <v>0.0520585870930973</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06651395730333948</v>
+      </c>
+      <c r="E63">
+        <v>-0.05243774002477036</v>
+      </c>
+      <c r="F63">
+        <v>0.02450188636812364</v>
+      </c>
+      <c r="G63">
+        <v>0.01051825839582972</v>
+      </c>
+      <c r="H63">
+        <v>0.03514362672507525</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05513406726480129</v>
+        <v>-0.0555913895817436</v>
       </c>
       <c r="C64">
-        <v>-0.06028479950263137</v>
+        <v>0.07449743115736493</v>
       </c>
       <c r="D64">
-        <v>0.06531108454936126</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05521261010707821</v>
+      </c>
+      <c r="E64">
+        <v>-0.04412165737269903</v>
+      </c>
+      <c r="F64">
+        <v>-0.02038502049567528</v>
+      </c>
+      <c r="G64">
+        <v>0.06436233877751323</v>
+      </c>
+      <c r="H64">
+        <v>0.02375988599345188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.06265200416750465</v>
+        <v>-0.05421297900245002</v>
       </c>
       <c r="C65">
-        <v>-0.006254989347988011</v>
+        <v>0.0221535290546802</v>
       </c>
       <c r="D65">
-        <v>0.1085525946190107</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1135836014641496</v>
+      </c>
+      <c r="E65">
+        <v>-0.01171974277510548</v>
+      </c>
+      <c r="F65">
+        <v>0.02154680762457934</v>
+      </c>
+      <c r="G65">
+        <v>-0.04014680295043502</v>
+      </c>
+      <c r="H65">
+        <v>-0.02036331911665443</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04721533998398544</v>
+        <v>-0.04580577691339696</v>
       </c>
       <c r="C66">
-        <v>-0.0555733253944852</v>
+        <v>0.0700680890017045</v>
       </c>
       <c r="D66">
-        <v>0.1082203626946973</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1267522692207503</v>
+      </c>
+      <c r="E66">
+        <v>-0.02492697826707199</v>
+      </c>
+      <c r="F66">
+        <v>-0.01166648572698533</v>
+      </c>
+      <c r="G66">
+        <v>0.01446267871210159</v>
+      </c>
+      <c r="H66">
+        <v>0.05611814722671423</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.04913532971276868</v>
+        <v>-0.04037737541496184</v>
       </c>
       <c r="C67">
-        <v>-0.03118537303159769</v>
+        <v>0.03002071794069601</v>
       </c>
       <c r="D67">
-        <v>0.03083941552285784</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02522044595886694</v>
+      </c>
+      <c r="E67">
+        <v>-0.02200518915287021</v>
+      </c>
+      <c r="F67">
+        <v>0.004018546698668993</v>
+      </c>
+      <c r="G67">
+        <v>-0.02254442442593198</v>
+      </c>
+      <c r="H67">
+        <v>0.03372422787280491</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1574711452046122</v>
+        <v>-0.1823920036413555</v>
       </c>
       <c r="C68">
-        <v>0.2761015928344625</v>
+        <v>-0.2249347215578251</v>
       </c>
       <c r="D68">
-        <v>-0.01901392051307907</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.00978024623111921</v>
+      </c>
+      <c r="E68">
+        <v>-0.05581690207114818</v>
+      </c>
+      <c r="F68">
+        <v>0.02384335049776082</v>
+      </c>
+      <c r="G68">
+        <v>0.004412267142733312</v>
+      </c>
+      <c r="H68">
+        <v>-0.001115799115127916</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08803384462837677</v>
+        <v>-0.08053897319021097</v>
       </c>
       <c r="C69">
-        <v>-0.07798090410948963</v>
+        <v>0.09677480458661954</v>
       </c>
       <c r="D69">
-        <v>0.04812067501677381</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04254204312337337</v>
+      </c>
+      <c r="E69">
+        <v>-0.03217684436803812</v>
+      </c>
+      <c r="F69">
+        <v>0.002471648515304932</v>
+      </c>
+      <c r="G69">
+        <v>0.04694765016376962</v>
+      </c>
+      <c r="H69">
+        <v>0.008970507656398941</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1321951482885648</v>
+        <v>-0.1696551319170263</v>
       </c>
       <c r="C71">
-        <v>0.2501375878657578</v>
+        <v>-0.227697798215662</v>
       </c>
       <c r="D71">
-        <v>0.03121480797748602</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03650873956632462</v>
+      </c>
+      <c r="E71">
+        <v>-0.0535261565019757</v>
+      </c>
+      <c r="F71">
+        <v>0.01999965231837812</v>
+      </c>
+      <c r="G71">
+        <v>0.04070754975012523</v>
+      </c>
+      <c r="H71">
+        <v>0.00878689973262946</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.0974620317216202</v>
+        <v>-0.1013350349135712</v>
       </c>
       <c r="C72">
-        <v>-0.04920493368250579</v>
+        <v>0.06261728297138712</v>
       </c>
       <c r="D72">
-        <v>0.08374249082644641</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09113494493238397</v>
+      </c>
+      <c r="E72">
+        <v>0.01418018217007694</v>
+      </c>
+      <c r="F72">
+        <v>0.03198243694743729</v>
+      </c>
+      <c r="G72">
+        <v>0.04629785932732854</v>
+      </c>
+      <c r="H72">
+        <v>0.02067376146506841</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.3137384207203997</v>
+        <v>-0.2742455890474252</v>
       </c>
       <c r="C73">
-        <v>-0.02701599516036528</v>
+        <v>0.07331968047182863</v>
       </c>
       <c r="D73">
-        <v>0.2048353274986534</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.2042298726012963</v>
+      </c>
+      <c r="E73">
+        <v>0.6686082240088667</v>
+      </c>
+      <c r="F73">
+        <v>0.1047247708567132</v>
+      </c>
+      <c r="G73">
+        <v>-0.070666198213645</v>
+      </c>
+      <c r="H73">
+        <v>-0.08551953621611212</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1057347238618428</v>
+        <v>-0.1058992706001509</v>
       </c>
       <c r="C74">
-        <v>-0.06796377245160926</v>
+        <v>0.08793549933590442</v>
       </c>
       <c r="D74">
-        <v>0.03441451686647169</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.004570696246789153</v>
+      </c>
+      <c r="E74">
+        <v>-0.07916876818405011</v>
+      </c>
+      <c r="F74">
+        <v>0.04336330230341418</v>
+      </c>
+      <c r="G74">
+        <v>0.0360835691845045</v>
+      </c>
+      <c r="H74">
+        <v>-0.07736218518442707</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2506982857287612</v>
+        <v>-0.2447413270628039</v>
       </c>
       <c r="C75">
-        <v>-0.1252609691771527</v>
+        <v>0.1551735542262546</v>
       </c>
       <c r="D75">
-        <v>-0.06235596085187081</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1169339259988339</v>
+      </c>
+      <c r="E75">
+        <v>-0.07211518450091645</v>
+      </c>
+      <c r="F75">
+        <v>-0.01903755659601508</v>
+      </c>
+      <c r="G75">
+        <v>0.02419677624020263</v>
+      </c>
+      <c r="H75">
+        <v>-0.1621518822201535</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1207416908636924</v>
+        <v>-0.1269046136830775</v>
       </c>
       <c r="C76">
-        <v>-0.08114016720676305</v>
+        <v>0.1047133261409187</v>
       </c>
       <c r="D76">
-        <v>0.0008166474995517435</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.02523945092350229</v>
+      </c>
+      <c r="E76">
+        <v>-0.1183010575285435</v>
+      </c>
+      <c r="F76">
+        <v>0.01056580331325252</v>
+      </c>
+      <c r="G76">
+        <v>0.05448636118690841</v>
+      </c>
+      <c r="H76">
+        <v>-0.04009829727188367</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.08093010249993986</v>
+        <v>-0.06884210117969938</v>
       </c>
       <c r="C77">
-        <v>-0.02021543776139954</v>
+        <v>0.06905700513928555</v>
       </c>
       <c r="D77">
-        <v>0.1154572222293484</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1238797496959803</v>
+      </c>
+      <c r="E77">
+        <v>-0.1044859783251685</v>
+      </c>
+      <c r="F77">
+        <v>-0.295433825044136</v>
+      </c>
+      <c r="G77">
+        <v>-0.1626646400635097</v>
+      </c>
+      <c r="H77">
+        <v>-0.1031723843013274</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03959555187301734</v>
+        <v>-0.04170205516548898</v>
       </c>
       <c r="C78">
-        <v>-0.04657673124118855</v>
+        <v>0.06119968182018428</v>
       </c>
       <c r="D78">
-        <v>0.108727051927273</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1235623125315774</v>
+      </c>
+      <c r="E78">
+        <v>-0.03339828294697349</v>
+      </c>
+      <c r="F78">
+        <v>0.01728562564173899</v>
+      </c>
+      <c r="G78">
+        <v>0.04387607263632052</v>
+      </c>
+      <c r="H78">
+        <v>0.02882112482699204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002305236417019589</v>
+        <v>-0.04085618182800337</v>
       </c>
       <c r="C79">
-        <v>0.002873418944706906</v>
+        <v>0.07624445231898963</v>
       </c>
       <c r="D79">
-        <v>0.0189329262617184</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.04363650877743164</v>
+      </c>
+      <c r="E79">
+        <v>-0.1604570347060151</v>
+      </c>
+      <c r="F79">
+        <v>0.07755935025164359</v>
+      </c>
+      <c r="G79">
+        <v>0.4040086163797893</v>
+      </c>
+      <c r="H79">
+        <v>-0.6641449601996223</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.03226490907813832</v>
+        <v>-0.02689750399893119</v>
       </c>
       <c r="C80">
-        <v>-0.02591397394227242</v>
+        <v>0.04025245268589861</v>
       </c>
       <c r="D80">
-        <v>0.03397170470595483</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03699583139437274</v>
+      </c>
+      <c r="E80">
+        <v>-0.01311398649962647</v>
+      </c>
+      <c r="F80">
+        <v>-0.03664761132809051</v>
+      </c>
+      <c r="G80">
+        <v>-0.0265947101270765</v>
+      </c>
+      <c r="H80">
+        <v>0.04410598215680329</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1459575913510624</v>
+        <v>-0.1341363192473546</v>
       </c>
       <c r="C81">
-        <v>-0.08407097413389894</v>
+        <v>0.1097406380252599</v>
       </c>
       <c r="D81">
-        <v>-0.03647555265560919</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07676177563359012</v>
+      </c>
+      <c r="E81">
+        <v>-0.1100919037258579</v>
+      </c>
+      <c r="F81">
+        <v>0.001253901500773931</v>
+      </c>
+      <c r="G81">
+        <v>0.03576082629738825</v>
+      </c>
+      <c r="H81">
+        <v>-0.06388136799098174</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2785841711750545</v>
+        <v>-0.2490453855870909</v>
       </c>
       <c r="C82">
-        <v>-0.2337304168974128</v>
+        <v>0.2274454922255698</v>
       </c>
       <c r="D82">
-        <v>-0.2248889364108272</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2300102596129747</v>
+      </c>
+      <c r="E82">
+        <v>-0.00986531043799185</v>
+      </c>
+      <c r="F82">
+        <v>0.04025222568789995</v>
+      </c>
+      <c r="G82">
+        <v>0.3708014094574524</v>
+      </c>
+      <c r="H82">
+        <v>0.4133172244332016</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.04070463907008289</v>
+        <v>-0.02609911801217346</v>
       </c>
       <c r="C83">
-        <v>-0.0370865123367795</v>
+        <v>0.0523305941057924</v>
       </c>
       <c r="D83">
-        <v>0.07040277311286786</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05248075078796511</v>
+      </c>
+      <c r="E83">
+        <v>-0.00562910380338276</v>
+      </c>
+      <c r="F83">
+        <v>-0.01964542223158067</v>
+      </c>
+      <c r="G83">
+        <v>0.001106958365408492</v>
+      </c>
+      <c r="H83">
+        <v>0.02964820448725074</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0004556451211746408</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.00372082012603613</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.009120538804503838</v>
+      </c>
+      <c r="E84">
+        <v>-0.0110508668805693</v>
+      </c>
+      <c r="F84">
+        <v>0.003621678041243468</v>
+      </c>
+      <c r="G84">
+        <v>-0.004971506864506572</v>
+      </c>
+      <c r="H84">
+        <v>0.005486015088210234</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1840935117466548</v>
+        <v>-0.1676000935334925</v>
       </c>
       <c r="C85">
-        <v>-0.1028211494892978</v>
+        <v>0.1265306652233396</v>
       </c>
       <c r="D85">
-        <v>-0.05142923608398847</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.08462957801761999</v>
+      </c>
+      <c r="E85">
+        <v>-0.03510975229342608</v>
+      </c>
+      <c r="F85">
+        <v>0.03363750703723316</v>
+      </c>
+      <c r="G85">
+        <v>0.05665717326006964</v>
+      </c>
+      <c r="H85">
+        <v>-0.147459804636968</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01563365407244708</v>
+        <v>-0.02064516664268718</v>
       </c>
       <c r="C86">
-        <v>-0.02297618215089858</v>
+        <v>0.01776074508272805</v>
       </c>
       <c r="D86">
-        <v>0.1379348174488098</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1211556527945201</v>
+      </c>
+      <c r="E86">
+        <v>-0.02287567454380195</v>
+      </c>
+      <c r="F86">
+        <v>-0.008855825504685721</v>
+      </c>
+      <c r="G86">
+        <v>0.04054093206316411</v>
+      </c>
+      <c r="H86">
+        <v>0.06577379485507721</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02910176447220875</v>
+        <v>-0.03300708059407909</v>
       </c>
       <c r="C87">
-        <v>-0.0002915483983930401</v>
+        <v>0.02382422108420377</v>
       </c>
       <c r="D87">
-        <v>0.09838631836582712</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1260594188030474</v>
+      </c>
+      <c r="E87">
+        <v>-0.09121242738397441</v>
+      </c>
+      <c r="F87">
+        <v>-0.02406826023703117</v>
+      </c>
+      <c r="G87">
+        <v>0.004210441375112294</v>
+      </c>
+      <c r="H87">
+        <v>0.02931344291525401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.08445611691391958</v>
+        <v>-0.07487923212454135</v>
       </c>
       <c r="C88">
-        <v>-0.06200567765075052</v>
+        <v>0.06479557577708407</v>
       </c>
       <c r="D88">
-        <v>0.05204532321047751</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02976986464002555</v>
+      </c>
+      <c r="E88">
+        <v>-0.038002361455786</v>
+      </c>
+      <c r="F88">
+        <v>-0.0007381989564780903</v>
+      </c>
+      <c r="G88">
+        <v>-0.0002188795570611889</v>
+      </c>
+      <c r="H88">
+        <v>0.01669267201636339</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2020118502622465</v>
+        <v>-0.2533033608531182</v>
       </c>
       <c r="C89">
-        <v>0.3602381619664415</v>
+        <v>-0.3512667831324034</v>
       </c>
       <c r="D89">
-        <v>-0.02926924202695407</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.00216150901256467</v>
+      </c>
+      <c r="E89">
+        <v>-0.07560122635367267</v>
+      </c>
+      <c r="F89">
+        <v>-0.04507450024469759</v>
+      </c>
+      <c r="G89">
+        <v>0.04367574043392274</v>
+      </c>
+      <c r="H89">
+        <v>0.03958769593253847</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1906910721918661</v>
+        <v>-0.2257036950611541</v>
       </c>
       <c r="C90">
-        <v>0.2978863146219949</v>
+        <v>-0.273689594610282</v>
       </c>
       <c r="D90">
-        <v>-0.03100826425600622</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01159703658056669</v>
+      </c>
+      <c r="E90">
+        <v>-0.0562334245378173</v>
+      </c>
+      <c r="F90">
+        <v>0.002320538805533229</v>
+      </c>
+      <c r="G90">
+        <v>-0.02230800574788961</v>
+      </c>
+      <c r="H90">
+        <v>0.06286260347644898</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1825359164219236</v>
+        <v>-0.1732109172007177</v>
       </c>
       <c r="C91">
-        <v>-0.1429892155142432</v>
+        <v>0.1587396993959717</v>
       </c>
       <c r="D91">
-        <v>-0.05264740016424993</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08693822594901038</v>
+      </c>
+      <c r="E91">
+        <v>-0.09425844506592009</v>
+      </c>
+      <c r="F91">
+        <v>0.01773385927831357</v>
+      </c>
+      <c r="G91">
+        <v>0.03252874964184094</v>
+      </c>
+      <c r="H91">
+        <v>-0.1560788666288751</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1623903471693036</v>
+        <v>-0.2040537964225722</v>
       </c>
       <c r="C92">
-        <v>0.3080739354327161</v>
+        <v>-0.2875762789571341</v>
       </c>
       <c r="D92">
-        <v>0.001863244820011915</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01014449687507875</v>
+      </c>
+      <c r="E92">
+        <v>-0.06835682240542608</v>
+      </c>
+      <c r="F92">
+        <v>-0.0406915223510787</v>
+      </c>
+      <c r="G92">
+        <v>-9.942688965399174e-05</v>
+      </c>
+      <c r="H92">
+        <v>0.01672115343670884</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2157096402191024</v>
+        <v>-0.2480749209342294</v>
       </c>
       <c r="C93">
-        <v>0.3166635500067198</v>
+        <v>-0.288809806344966</v>
       </c>
       <c r="D93">
-        <v>-0.02008979027485058</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01112285711847038</v>
+      </c>
+      <c r="E93">
+        <v>-0.03003591902366277</v>
+      </c>
+      <c r="F93">
+        <v>0.03343263043432573</v>
+      </c>
+      <c r="G93">
+        <v>0.01640390795602685</v>
+      </c>
+      <c r="H93">
+        <v>0.008687891055758656</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.395154465206672</v>
+        <v>-0.3451385075611755</v>
       </c>
       <c r="C94">
-        <v>-0.2333311425946982</v>
+        <v>0.2439199007474771</v>
       </c>
       <c r="D94">
-        <v>-0.4615834486571951</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4388165514950665</v>
+      </c>
+      <c r="E94">
+        <v>-0.1140870271511286</v>
+      </c>
+      <c r="F94">
+        <v>-0.03967842713214086</v>
+      </c>
+      <c r="G94">
+        <v>-0.571379566991968</v>
+      </c>
+      <c r="H94">
+        <v>0.109755881937608</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.09709184505952309</v>
+        <v>-0.07565244485252563</v>
       </c>
       <c r="C95">
-        <v>0.008252399225227098</v>
+        <v>0.05261054688855214</v>
       </c>
       <c r="D95">
-        <v>0.06511137971245808</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.08756275300876375</v>
+      </c>
+      <c r="E95">
+        <v>0.115260176759386</v>
+      </c>
+      <c r="F95">
+        <v>-0.9053456800251517</v>
+      </c>
+      <c r="G95">
+        <v>0.06133695080668415</v>
+      </c>
+      <c r="H95">
+        <v>-0.0775104111765236</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1764924758795344</v>
+        <v>-0.1708459080578901</v>
       </c>
       <c r="C98">
-        <v>-0.02580471001785412</v>
+        <v>0.05233860042785499</v>
       </c>
       <c r="D98">
-        <v>0.1267454923730402</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.135910840332581</v>
+      </c>
+      <c r="E98">
+        <v>0.285550223408053</v>
+      </c>
+      <c r="F98">
+        <v>0.08922706159435297</v>
+      </c>
+      <c r="G98">
+        <v>0.0199449638888895</v>
+      </c>
+      <c r="H98">
+        <v>-0.02169201955765034</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.005324053949590382</v>
+        <v>-0.006958067346702049</v>
       </c>
       <c r="C101">
-        <v>-0.01459248768682157</v>
+        <v>0.019514120566429</v>
       </c>
       <c r="D101">
-        <v>0.06181028475753701</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.07723441863124962</v>
+      </c>
+      <c r="E101">
+        <v>-0.04947294728923675</v>
+      </c>
+      <c r="F101">
+        <v>-0.001110697565618505</v>
+      </c>
+      <c r="G101">
+        <v>0.04870511025643419</v>
+      </c>
+      <c r="H101">
+        <v>0.07697221601744852</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1276309835931907</v>
+        <v>-0.1165646571461945</v>
       </c>
       <c r="C102">
-        <v>-0.09820217035941907</v>
+        <v>0.1146768567629964</v>
       </c>
       <c r="D102">
-        <v>-0.03694337339649368</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.053965961823155</v>
+      </c>
+      <c r="E102">
+        <v>-0.02669556193330092</v>
+      </c>
+      <c r="F102">
+        <v>-0.01859197343991675</v>
+      </c>
+      <c r="G102">
+        <v>0.04545827962838299</v>
+      </c>
+      <c r="H102">
+        <v>-0.00994507051394348</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
